--- a/Ejercicios/Ejercicios-LeGrange.xlsx
+++ b/Ejercicios/Ejercicios-LeGrange.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7375A327-A315-42D7-98BB-D1AA8062E3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECBA8D-F1A0-483D-9171-0F9D718E92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{7FA32977-33F8-4889-9593-D3E9D84B6C21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{7FA32977-33F8-4889-9593-D3E9D84B6C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 2" sheetId="9" r:id="rId1"/>
@@ -387,12 +387,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,8 +427,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -447,7 +447,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -492,8 +492,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -512,7 +512,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1338,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF00D0-2EFE-498B-A239-E7C9C8D938BE}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1473,13 +1473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3757BD-BA07-449D-9622-FD9837F36D87}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
